--- a/vdd/tests/data/demo_model.xlsx
+++ b/vdd/tests/data/demo_model.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t xml:space="preserve">Characteristics</t>
   </si>
@@ -61,10 +61,19 @@
     <t xml:space="preserve">Stiffness</t>
   </si>
   <si>
+    <t xml:space="preserve">min</t>
+  </si>
+  <si>
     <t xml:space="preserve">Friction</t>
   </si>
   <si>
+    <t xml:space="preserve">max</t>
+  </si>
+  <si>
     <t xml:space="preserve">Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opt</t>
   </si>
 </sst>
 </file>
@@ -295,7 +304,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -422,7 +431,15 @@
       <c r="B4" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="17" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>29</v>
+      </c>
       <c r="F4" s="8"/>
       <c r="G4" s="9"/>
       <c r="J4" s="8"/>
@@ -433,12 +450,20 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>12</v>
+      </c>
       <c r="F5" s="8"/>
       <c r="G5" s="9"/>
       <c r="J5" s="8"/>
@@ -449,15 +474,25 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="C6" s="17"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-      <c r="J6" s="8"/>
+      <c r="G6" s="9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="J6" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" s="9" t="n">
         <v>0</v>
       </c>

--- a/vdd/tests/data/demo_model.xlsx
+++ b/vdd/tests/data/demo_model.xlsx
@@ -304,21 +304,25 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.4336734693878"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.93877551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.6530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.04081632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.47959183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="5.04081632653061"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.6530612244898"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.47959183673469"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.06632653061225"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.04081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.6530612244898"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.47959183673469"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="3.6530612244898"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="5.04081632653061"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="3.6530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
